--- a/uml_diagrams/Map.xlsx
+++ b/uml_diagrams/Map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Map</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>diff to current</t>
+  </si>
+  <si>
+    <t>circleEquotation:</t>
+  </si>
+  <si>
+    <t>(x-a)^2 +(y-b)^2 = r^2</t>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
   <dimension ref="B2:AV40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1130,12 @@
       <c r="AK8" s="13"/>
       <c r="AL8" s="14"/>
       <c r="AM8" s="14"/>
+      <c r="AP8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="E9" s="43">
